--- a/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -564,6 +569,10 @@
   <si>
     <t>fixed_o&amp;m</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +584,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,11 +793,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1409,7 +1413,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1713,20 +1717,20 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1746,8 +1750,8 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,17 +1813,17 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1833,9 +1837,9 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1854,12 +1858,12 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1870,31 +1874,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2398,77 +2402,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2606,7 +2540,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2719,7 +2653,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3110,50 +3044,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3162,29 +3096,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="73" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="74"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="75" t="s">
         <v>27</v>
@@ -3193,33 +3127,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="75"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="75" t="s">
         <v>32</v>
@@ -3228,49 +3162,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>40</v>
@@ -3279,44 +3213,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="173" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
@@ -3324,7 +3255,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="176"/>
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
@@ -3332,7 +3263,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="176"/>
       <c r="C4" s="177"/>
       <c r="D4" s="177"/>
@@ -3340,7 +3271,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="179"/>
       <c r="C5" s="180"/>
       <c r="D5" s="180"/>
@@ -3348,17 +3279,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3369,7 +3300,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3390,7 +3321,7 @@
       </c>
       <c r="J9" s="90"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3401,7 +3332,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3414,11 +3345,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="41">
@@ -3427,20 +3358,20 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="160" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>2</v>
@@ -3451,23 +3382,23 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105"/>
       <c r="B14" s="106"/>
       <c r="C14" s="153" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="41">
         <f>'Research data'!H9</f>
@@ -3475,20 +3406,20 @@
       </c>
       <c r="F14" s="102"/>
       <c r="G14" s="153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="108"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105"/>
       <c r="B15" s="106"/>
       <c r="C15" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="41">
@@ -3499,15 +3430,15 @@
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
       <c r="I15" s="169" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J15" s="108"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -3520,14 +3451,14 @@
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="106"/>
       <c r="C17" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3541,7 +3472,7 @@
       <c r="I17" s="104"/>
       <c r="J17" s="108"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3552,7 +3483,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="91"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -3565,7 +3496,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -3583,17 +3514,17 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="91"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="41">
         <f>'Research data'!H20</f>
@@ -3601,21 +3532,21 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="91"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
       <c r="C22" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="134" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H22</f>
@@ -3623,18 +3554,18 @@
       </c>
       <c r="F22" s="135"/>
       <c r="G22" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="135"/>
       <c r="I22" s="161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="136"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="132"/>
       <c r="C23" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="41">
@@ -3643,18 +3574,18 @@
       </c>
       <c r="F23" s="135"/>
       <c r="G23" s="139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="135"/>
       <c r="I23" s="148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="136"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="132"/>
       <c r="C24" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="41">
@@ -3663,18 +3594,18 @@
       </c>
       <c r="F24" s="135"/>
       <c r="G24" s="139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="135"/>
       <c r="I24" s="148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24" s="136"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
       <c r="C25" s="149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="134"/>
       <c r="E25" s="41">
@@ -3683,16 +3614,16 @@
       </c>
       <c r="F25" s="135"/>
       <c r="G25" s="139" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="135"/>
       <c r="I25" s="162"/>
       <c r="J25" s="136"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
       <c r="C26" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="134"/>
       <c r="E26" s="41">
@@ -3701,44 +3632,44 @@
       </c>
       <c r="F26" s="135"/>
       <c r="G26" s="140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="135"/>
       <c r="I26" s="148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J26" s="136"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105"/>
       <c r="B27" s="106"/>
       <c r="C27" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="E27" s="109">
         <v>0.1</v>
       </c>
       <c r="F27" s="102"/>
       <c r="G27" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="102"/>
       <c r="I27" s="169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="108"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105"/>
       <c r="B28" s="106"/>
       <c r="C28" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="109">
         <v>0</v>
@@ -3749,7 +3680,7 @@
       <c r="I28" s="104"/>
       <c r="J28" s="108"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="105"/>
       <c r="B29" s="106"/>
       <c r="C29" s="102"/>
@@ -3761,7 +3692,7 @@
       <c r="I29" s="110"/>
       <c r="J29" s="108"/>
     </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105"/>
       <c r="B30" s="106"/>
       <c r="C30" s="13" t="s">
@@ -3774,7 +3705,7 @@
       <c r="I30" s="110"/>
       <c r="J30" s="108"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="105"/>
       <c r="B31" s="106"/>
       <c r="C31" s="102" t="s">
@@ -3789,19 +3720,19 @@
       </c>
       <c r="F31" s="102"/>
       <c r="G31" s="102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="102"/>
       <c r="I31" s="161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" s="108"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="105"/>
       <c r="B32" s="106"/>
       <c r="C32" s="102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
@@ -3812,20 +3743,20 @@
       </c>
       <c r="F32" s="102"/>
       <c r="G32" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="102"/>
       <c r="I32" s="104"/>
       <c r="J32" s="108"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="105"/>
       <c r="B33" s="106"/>
       <c r="C33" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="E33" s="127">
         <f>'Research data'!H32</f>
@@ -3833,15 +3764,15 @@
       </c>
       <c r="F33" s="102"/>
       <c r="G33" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="102"/>
       <c r="I33" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J33" s="108"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="105"/>
       <c r="B34" s="106"/>
       <c r="C34" s="102" t="s">
@@ -3857,11 +3788,11 @@
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="108"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="105"/>
       <c r="B35" s="113"/>
       <c r="C35" s="114"/>
@@ -3873,7 +3804,7 @@
       <c r="I35" s="114"/>
       <c r="J35" s="115"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="105"/>
       <c r="B36" s="105"/>
       <c r="C36" s="105"/>
@@ -3885,7 +3816,7 @@
       <c r="I36" s="105"/>
       <c r="J36" s="105"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="105"/>
       <c r="B37" s="105"/>
       <c r="C37" s="105"/>
@@ -3897,7 +3828,7 @@
       <c r="I37" s="105"/>
       <c r="J37" s="105"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="105"/>
       <c r="B38" s="105"/>
       <c r="C38" s="105"/>
@@ -3909,7 +3840,7 @@
       <c r="I38" s="105"/>
       <c r="J38" s="105"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="105"/>
       <c r="B39" s="105"/>
       <c r="E39" s="105"/>
@@ -3919,7 +3850,7 @@
       <c r="I39" s="105"/>
       <c r="J39" s="105"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="105"/>
       <c r="B40" s="105"/>
       <c r="C40" s="105"/>
@@ -3931,7 +3862,7 @@
       <c r="I40" s="105"/>
       <c r="J40" s="105"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="105"/>
       <c r="B41" s="105"/>
       <c r="C41" s="105"/>
@@ -3943,7 +3874,7 @@
       <c r="I41" s="105"/>
       <c r="J41" s="105"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="105"/>
       <c r="B42" s="105"/>
       <c r="C42" s="105"/>
@@ -3955,7 +3886,7 @@
       <c r="I42" s="105"/>
       <c r="J42" s="105"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="105"/>
       <c r="B43" s="105"/>
       <c r="C43" s="105"/>
@@ -3967,10 +3898,10 @@
       <c r="I43" s="105"/>
       <c r="J43" s="105"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="105"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="105"/>
     </row>
   </sheetData>
@@ -3979,43 +3910,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4030,32 +3924,32 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.75" style="42" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.375" style="42" customWidth="1"/>
-    <col min="16" max="16" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="42" customWidth="1"/>
     <col min="17" max="17" width="11" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="42" customWidth="1"/>
-    <col min="19" max="19" width="22.375" style="42" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="42"/>
+    <col min="18" max="18" width="2.42578125" style="42" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="42" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="16" thickBot="1"/>
-    <row r="3" spans="1:19">
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4075,7 +3969,7 @@
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
     </row>
-    <row r="4" spans="1:19" s="26" customFormat="1">
+    <row r="4" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="88" t="s">
         <v>19</v>
@@ -4087,26 +3981,26 @@
       </c>
       <c r="G4" s="88"/>
       <c r="H4" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="88"/>
       <c r="N4" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="88"/>
       <c r="P4" s="88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4123,7 +4017,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="54"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4142,10 +4036,10 @@
       <c r="O6" s="10"/>
       <c r="P6" s="52"/>
     </row>
-    <row r="7" spans="1:19" ht="16" thickBot="1">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="156" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -4166,10 +4060,10 @@
       <c r="O7" s="47"/>
       <c r="P7" s="101"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1">
+    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4192,15 +4086,15 @@
       <c r="O8" s="47"/>
       <c r="P8" s="52"/>
     </row>
-    <row r="9" spans="1:19" ht="16" thickBot="1">
+    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="153" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="157">
@@ -4218,11 +4112,11 @@
       <c r="O9" s="47"/>
       <c r="P9" s="101"/>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1">
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105"/>
       <c r="B10" s="106"/>
       <c r="C10" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4243,16 +4137,16 @@
       <c r="P10" s="138"/>
       <c r="Q10" s="105"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1">
+    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105"/>
       <c r="B11" s="106"/>
       <c r="C11" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
       <c r="F11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="107">
         <f>N11</f>
@@ -4270,11 +4164,11 @@
       <c r="P11" s="138"/>
       <c r="Q11" s="105"/>
     </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1">
+    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="105"/>
       <c r="B12" s="106"/>
       <c r="C12" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4292,11 +4186,11 @@
       <c r="P12" s="138"/>
       <c r="Q12" s="105"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1">
+    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105"/>
       <c r="B13" s="106"/>
       <c r="C13" s="102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4314,11 +4208,11 @@
       <c r="P13" s="138"/>
       <c r="Q13" s="105"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickBot="1">
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105"/>
       <c r="B14" s="106"/>
       <c r="C14" s="102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4331,7 +4225,7 @@
       <c r="P14" s="138"/>
       <c r="Q14" s="105"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="45"/>
       <c r="H15" s="48"/>
       <c r="I15" s="102"/>
@@ -4343,7 +4237,7 @@
       <c r="O15" s="47"/>
       <c r="P15" s="138"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="105"/>
       <c r="B16" s="106"/>
       <c r="C16" s="34"/>
@@ -4358,7 +4252,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="54"/>
     </row>
-    <row r="17" spans="1:16" ht="16" thickBot="1">
+    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="105"/>
       <c r="B17" s="106"/>
       <c r="C17" s="12" t="s">
@@ -4375,11 +4269,11 @@
       <c r="O17" s="118"/>
       <c r="P17" s="101"/>
     </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1">
+    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105"/>
       <c r="B18" s="106"/>
       <c r="C18" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="116"/>
       <c r="E18" s="116"/>
@@ -4398,14 +4292,14 @@
       <c r="K18" s="118"/>
       <c r="P18" s="101"/>
     </row>
-    <row r="19" spans="1:16" ht="16" thickBot="1">
+    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="105"/>
       <c r="B19" s="106"/>
       <c r="C19" s="121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="122" t="e">
         <f>J19</f>
@@ -4421,11 +4315,11 @@
       <c r="O19" s="118"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" ht="16" thickBot="1">
+    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="105"/>
       <c r="B20" s="106"/>
       <c r="C20" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="123" t="s">
         <v>20</v>
@@ -4444,14 +4338,14 @@
       <c r="O20" s="118"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" ht="16" thickBot="1">
+    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="105"/>
       <c r="B21" s="106"/>
       <c r="C21" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="158">
         <f>J21</f>
@@ -4464,14 +4358,14 @@
       <c r="O21" s="111"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" ht="16" thickBot="1">
+    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="105"/>
       <c r="B22" s="106"/>
       <c r="C22" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="158">
         <f>Notes!E221</f>
@@ -4484,11 +4378,11 @@
       <c r="O22" s="111"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" ht="16" thickBot="1">
+    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="142"/>
       <c r="B23" s="143"/>
       <c r="C23" s="141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="142"/>
       <c r="E23" s="142"/>
@@ -4507,14 +4401,14 @@
       <c r="K23" s="145"/>
       <c r="O23" s="142"/>
       <c r="P23" s="146" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="142"/>
       <c r="B24" s="143"/>
       <c r="C24" s="141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="142"/>
       <c r="E24" s="142"/>
@@ -4533,14 +4427,14 @@
       <c r="K24" s="145"/>
       <c r="O24" s="142"/>
       <c r="P24" s="168" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="105"/>
       <c r="B25" s="106"/>
       <c r="C25" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="141" t="s">
         <v>20</v>
@@ -4560,16 +4454,16 @@
       <c r="O25" s="111"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" ht="16" thickBot="1">
+    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="142"/>
       <c r="B26" s="143"/>
       <c r="C26" s="147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="142"/>
       <c r="E26" s="142"/>
       <c r="F26" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="142"/>
       <c r="H26" s="144">
@@ -4583,21 +4477,21 @@
       <c r="K26" s="145"/>
       <c r="O26" s="142"/>
       <c r="P26" s="138" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H27" s="48"/>
       <c r="J27" s="48"/>
       <c r="P27" s="52"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="45"/>
       <c r="H28" s="48"/>
       <c r="J28" s="48"/>
       <c r="P28" s="101"/>
     </row>
-    <row r="29" spans="1:16" ht="16" thickBot="1">
+    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105"/>
       <c r="B29" s="106"/>
       <c r="C29" s="34" t="s">
@@ -4614,7 +4508,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="138"/>
     </row>
-    <row r="30" spans="1:16" ht="16" thickBot="1">
+    <row r="30" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105"/>
       <c r="B30" s="106"/>
       <c r="C30" s="120" t="s">
@@ -4639,11 +4533,11 @@
       <c r="O30" s="119"/>
       <c r="P30" s="138"/>
     </row>
-    <row r="31" spans="1:16" ht="16" thickBot="1">
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="105"/>
       <c r="B31" s="106"/>
       <c r="C31" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="117" t="s">
         <v>1</v>
@@ -4657,14 +4551,14 @@
       <c r="O31" s="119"/>
       <c r="P31" s="138"/>
     </row>
-    <row r="32" spans="1:16" ht="16" thickBot="1">
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="105"/>
       <c r="B32" s="106"/>
       <c r="C32" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="122">
         <f>L32</f>
@@ -4681,7 +4575,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1">
+    <row r="33" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="105"/>
       <c r="B33" s="106"/>
       <c r="C33" s="98" t="s">
@@ -4694,73 +4588,68 @@
       <c r="J33" s="48"/>
       <c r="P33" s="101"/>
     </row>
-    <row r="34" spans="1:16" ht="16" thickBot="1">
+    <row r="34" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="105"/>
       <c r="B34" s="106"/>
       <c r="C34" s="102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H34" s="107"/>
       <c r="J34" s="48"/>
       <c r="P34" s="138"/>
     </row>
-    <row r="35" spans="1:16" ht="16" thickBot="1">
+    <row r="35" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="105"/>
       <c r="B35" s="106"/>
       <c r="C35" s="102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" s="107"/>
       <c r="J35" s="48"/>
       <c r="P35" s="138"/>
     </row>
-    <row r="36" spans="1:16" ht="16" thickBot="1">
+    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="105"/>
       <c r="B36" s="106"/>
       <c r="C36" s="102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="107"/>
       <c r="J36" s="48"/>
       <c r="P36" s="138"/>
     </row>
-    <row r="37" spans="1:16" ht="16" thickBot="1">
+    <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="105"/>
       <c r="B37" s="106"/>
       <c r="C37" s="102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="107"/>
       <c r="J37" s="48"/>
       <c r="P37" s="138"/>
     </row>
-    <row r="38" spans="1:16" ht="16" thickBot="1">
+    <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="105"/>
       <c r="B38" s="106"/>
       <c r="C38" s="102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="107"/>
       <c r="J38" s="48"/>
       <c r="P38" s="138"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C39" s="165"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C40" s="165"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C41" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4775,22 +4664,22 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="56" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="60" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="56"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4801,7 +4690,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="59"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4814,7 +4703,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="59"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4825,7 +4714,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="63"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4840,19 +4729,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4863,16 +4752,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
       <c r="C7" s="170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="170" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="170" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="170">
         <v>2015</v>
@@ -4884,13 +4773,13 @@
         <v>42360</v>
       </c>
       <c r="I7" s="172" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="170" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="170" t="s">
         <v>22</v>
@@ -4903,10 +4792,10 @@
       <c r="I8" s="172"/>
       <c r="J8" s="170"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="59"/>
       <c r="C9" s="170" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="170"/>
       <c r="E9" s="170"/>
@@ -4916,7 +4805,7 @@
       <c r="I9" s="172"/>
       <c r="J9" s="170"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="170"/>
       <c r="D10" s="170"/>
@@ -4927,7 +4816,7 @@
       <c r="I10" s="172"/>
       <c r="J10" s="170"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="59"/>
       <c r="D11" s="110"/>
       <c r="E11" s="110"/>
@@ -4937,7 +4826,7 @@
       <c r="I11" s="55"/>
       <c r="J11" s="110"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="59"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -4947,7 +4836,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="59"/>
       <c r="C13" s="125"/>
       <c r="D13" s="55"/>
@@ -4958,16 +4847,16 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="155" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="163" t="s">
         <v>114</v>
-      </c>
-      <c r="E14" s="163" t="s">
-        <v>115</v>
       </c>
       <c r="F14" s="55">
         <v>2015</v>
@@ -4978,13 +4867,13 @@
       <c r="H14" s="97"/>
       <c r="I14" s="110"/>
       <c r="J14" s="163" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="59"/>
       <c r="C15" s="154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="100"/>
       <c r="F15" s="55"/>
@@ -4993,7 +4882,7 @@
       <c r="I15" s="110"/>
       <c r="J15" s="95"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="59"/>
       <c r="C16" s="105" t="s">
         <v>24</v>
@@ -5006,21 +4895,21 @@
       <c r="I16" s="110"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
       <c r="C17" s="170" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="59"/>
       <c r="C18" s="105"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="59"/>
       <c r="C19" s="124"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="59"/>
       <c r="C20" s="125"/>
       <c r="D20" s="55"/>
@@ -5031,7 +4920,7 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="59"/>
       <c r="C21" s="124"/>
       <c r="D21" s="55"/>
@@ -5042,7 +4931,7 @@
       <c r="I21" s="96"/>
       <c r="J21" s="55"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="59"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5053,17 +4942,12 @@
       <c r="J22" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" display="http://www.ce.nl/?go=home.downloadPub&amp;id=1674&amp;file=Power_to_products.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5078,23 +4962,23 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="64" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="64" customWidth="1"/>
     <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="64" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="64"/>
-    <col min="14" max="14" width="15.75" style="64" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="64"/>
-    <col min="16" max="16" width="54.75" style="64" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="64"/>
+    <col min="5" max="5" width="13.140625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="64"/>
+    <col min="14" max="14" width="15.7109375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="64"/>
+    <col min="16" max="16" width="54.7109375" style="64" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -5109,14 +4993,14 @@
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
       <c r="B3" s="93"/>
       <c r="C3" s="72" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="72" t="s">
         <v>25</v>
@@ -5131,7 +5015,7 @@
       <c r="M3" s="69"/>
       <c r="N3" s="94"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -5147,7 +5031,7 @@
       <c r="N4" s="71"/>
       <c r="O4" s="71"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="70"/>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -5162,7 +5046,7 @@
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="70"/>
       <c r="D6" s="71"/>
       <c r="G6" s="71"/>
@@ -5175,7 +5059,7 @@
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="70"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
@@ -5190,7 +5074,7 @@
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="70"/>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -5205,7 +5089,7 @@
       <c r="N8" s="71"/>
       <c r="O8" s="71"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
@@ -5221,7 +5105,7 @@
       <c r="N9" s="71"/>
       <c r="O9" s="71"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -5237,7 +5121,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="71"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
@@ -5253,7 +5137,7 @@
       <c r="N11" s="71"/>
       <c r="O11" s="71"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -5269,7 +5153,7 @@
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="70"/>
       <c r="C13" s="71"/>
       <c r="D13" s="71"/>
@@ -5285,7 +5169,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -5301,7 +5185,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="70"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
@@ -5315,7 +5199,7 @@
       <c r="N15" s="71"/>
       <c r="O15" s="71"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -5331,20 +5215,20 @@
       <c r="N16" s="71"/>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
       <c r="C17" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="64">
         <v>7533.6</v>
       </c>
       <c r="F17" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="64" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>121</v>
       </c>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
@@ -5354,12 +5238,12 @@
       <c r="N17" s="71"/>
       <c r="O17" s="71"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
       <c r="G18" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
@@ -5369,7 +5253,7 @@
       <c r="N18" s="71"/>
       <c r="O18" s="71"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="70"/>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -5385,7 +5269,7 @@
       <c r="N19" s="71"/>
       <c r="O19" s="71"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="70"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -5401,7 +5285,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="71"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="70"/>
       <c r="C21" s="71"/>
       <c r="D21" s="71"/>
@@ -5417,7 +5301,7 @@
       <c r="N21" s="71"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
@@ -5433,10 +5317,10 @@
       <c r="N22" s="71"/>
       <c r="O22" s="71"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="70"/>
       <c r="C23" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="71">
         <v>9</v>
@@ -5453,7 +5337,7 @@
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
@@ -5469,7 +5353,7 @@
       <c r="N24" s="71"/>
       <c r="O24" s="71"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
@@ -5485,7 +5369,7 @@
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
@@ -5501,7 +5385,7 @@
       <c r="N26" s="71"/>
       <c r="O26" s="71"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -5510,7 +5394,7 @@
         <v>19.220000000000002</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
@@ -5522,7 +5406,7 @@
       <c r="N27" s="71"/>
       <c r="O27" s="71"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="70"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -5531,10 +5415,10 @@
         <v>1.9220000000000003E-3</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
@@ -5545,7 +5429,7 @@
       <c r="N28" s="71"/>
       <c r="O28" s="71"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="70"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
@@ -5561,7 +5445,7 @@
       <c r="N29" s="71"/>
       <c r="O29" s="71"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -5569,10 +5453,10 @@
         <v>1.25</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
@@ -5583,7 +5467,7 @@
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="70"/>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -5599,7 +5483,7 @@
       <c r="N31" s="71"/>
       <c r="O31" s="71"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
       <c r="D32" s="71"/>
@@ -5615,7 +5499,7 @@
       <c r="N32" s="71"/>
       <c r="O32" s="71"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
       <c r="E33" s="71"/>
@@ -5630,14 +5514,14 @@
       <c r="N33" s="71"/>
       <c r="O33" s="71"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="70"/>
       <c r="E34" s="71">
         <v>0.67500000000000004</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="150"/>
       <c r="I34" s="71"/>
@@ -5648,7 +5532,7 @@
       <c r="N34" s="71"/>
       <c r="O34" s="71"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
@@ -5664,7 +5548,7 @@
       <c r="N35" s="71"/>
       <c r="O35" s="71"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="70"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -5672,10 +5556,10 @@
         <v>80000</v>
       </c>
       <c r="F36" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="64" t="s">
         <v>112</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>113</v>
       </c>
       <c r="I36" s="71"/>
       <c r="J36" s="71"/>
@@ -5685,7 +5569,7 @@
       <c r="N36" s="71"/>
       <c r="O36" s="71"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="70"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -5697,7 +5581,7 @@
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="70"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
@@ -5706,7 +5590,7 @@
         <v>10.619093129446744</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="64" t="s">
         <v>24</v>
@@ -5719,7 +5603,7 @@
       <c r="N38" s="71"/>
       <c r="O38" s="71"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -5733,7 +5617,7 @@
       <c r="N39" s="71"/>
       <c r="O39" s="71"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="70"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
@@ -5745,7 +5629,7 @@
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="70"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -5757,7 +5641,7 @@
       <c r="N41" s="71"/>
       <c r="O41" s="71"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="70"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
@@ -5769,10 +5653,10 @@
       <c r="N42" s="71"/>
       <c r="O42" s="71"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="70"/>
       <c r="C43" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="71">
         <v>89</v>
@@ -5785,7 +5669,7 @@
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="70"/>
       <c r="C44" s="71"/>
       <c r="K44" s="71"/>
@@ -5794,7 +5678,7 @@
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="70"/>
       <c r="C45" s="71"/>
       <c r="K45" s="71"/>
@@ -5803,17 +5687,17 @@
       <c r="N45" s="71"/>
       <c r="O45" s="71"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="70"/>
       <c r="C46" s="71"/>
       <c r="E46" s="64">
         <v>1200</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K46" s="71"/>
       <c r="L46" s="71"/>
@@ -5821,7 +5705,7 @@
       <c r="N46" s="71"/>
       <c r="O46" s="71"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="70"/>
       <c r="C47" s="71"/>
       <c r="E47" s="64">
@@ -5840,7 +5724,7 @@
       <c r="N47" s="71"/>
       <c r="O47" s="71"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="70"/>
       <c r="C48" s="71"/>
       <c r="K48" s="71"/>
@@ -5849,17 +5733,17 @@
       <c r="N48" s="71"/>
       <c r="O48" s="71"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="70"/>
       <c r="C49" s="71"/>
       <c r="E49" s="64">
         <v>2</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" s="71"/>
       <c r="L49" s="71"/>
@@ -5867,7 +5751,7 @@
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="70"/>
       <c r="C50" s="71"/>
       <c r="E50" s="64">
@@ -5878,7 +5762,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K50" s="71"/>
       <c r="L50" s="71"/>
@@ -5886,7 +5770,7 @@
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="70"/>
       <c r="C51" s="71"/>
       <c r="K51" s="71"/>
@@ -5895,7 +5779,7 @@
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="70"/>
       <c r="C52" s="71"/>
       <c r="E52" s="64" t="e">
@@ -5906,7 +5790,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
@@ -5914,7 +5798,7 @@
       <c r="N52" s="71"/>
       <c r="O52" s="71"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="70"/>
       <c r="C53" s="71"/>
       <c r="K53" s="71"/>
@@ -5923,7 +5807,7 @@
       <c r="N53" s="71"/>
       <c r="O53" s="71"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="70"/>
       <c r="K54" s="71"/>
       <c r="L54" s="71"/>
@@ -5931,7 +5815,7 @@
       <c r="N54" s="71"/>
       <c r="O54" s="71"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="70"/>
       <c r="K55" s="71"/>
       <c r="L55" s="71"/>
@@ -5939,802 +5823,802 @@
       <c r="N55" s="71"/>
       <c r="O55" s="71"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="70"/>
       <c r="N56" s="71"/>
       <c r="O56" s="71"/>
     </row>
-    <row r="57" spans="2:15" ht="16">
+    <row r="57" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="70"/>
       <c r="C57" s="130"/>
       <c r="N57" s="71"/>
       <c r="O57" s="71"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="70"/>
       <c r="N58" s="71"/>
       <c r="O58" s="71"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="70"/>
       <c r="N59" s="71"/>
       <c r="O59" s="71"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="70"/>
       <c r="N60" s="71"/>
       <c r="O60" s="71"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="70"/>
       <c r="N61" s="71"/>
       <c r="O61" s="71"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="70"/>
       <c r="N62" s="71"/>
       <c r="O62" s="71"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="70"/>
       <c r="N63" s="71"/>
       <c r="O63" s="71"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="70"/>
       <c r="N64" s="71"/>
       <c r="O64" s="71"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="70"/>
       <c r="N65" s="71"/>
       <c r="O65" s="71"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="70"/>
       <c r="N66" s="71"/>
       <c r="O66" s="71"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="70"/>
       <c r="N67" s="71"/>
       <c r="O67" s="71"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="70"/>
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="70"/>
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="70"/>
       <c r="N70" s="71"/>
       <c r="O70" s="71"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="70"/>
       <c r="N71" s="71"/>
       <c r="O71" s="71"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="70"/>
       <c r="N72" s="71"/>
       <c r="O72" s="71"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="70"/>
       <c r="N73" s="71"/>
       <c r="O73" s="71"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="70"/>
       <c r="N74" s="71"/>
       <c r="O74" s="71"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="70"/>
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="70"/>
       <c r="N76" s="71"/>
       <c r="O76" s="71"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="70"/>
       <c r="N77" s="71"/>
       <c r="O77" s="71"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="70"/>
       <c r="N78" s="71"/>
       <c r="O78" s="71"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="70"/>
       <c r="N79" s="71"/>
       <c r="O79" s="71"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="70"/>
       <c r="N80" s="71"/>
       <c r="O80" s="71"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="70"/>
       <c r="N81" s="71"/>
       <c r="O81" s="71"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="70"/>
       <c r="N82" s="71"/>
       <c r="O82" s="71"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="70"/>
       <c r="N83" s="71"/>
       <c r="O83" s="71"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="70"/>
       <c r="N84" s="71"/>
       <c r="O84" s="71"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="70"/>
       <c r="N85" s="71"/>
       <c r="O85" s="71"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="70"/>
       <c r="N86" s="71"/>
       <c r="O86" s="71"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="70"/>
       <c r="N87" s="71"/>
       <c r="O87" s="71"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="70"/>
       <c r="C88" s="71"/>
       <c r="N88" s="71"/>
       <c r="O88" s="71"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="70"/>
       <c r="C89" s="71"/>
       <c r="D89" s="71"/>
       <c r="N89" s="71"/>
       <c r="O89" s="71"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="70"/>
       <c r="C90" s="71"/>
       <c r="N90" s="71"/>
       <c r="O90" s="71"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="70"/>
       <c r="E91" s="151"/>
       <c r="N91" s="71"/>
       <c r="O91" s="71"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="70"/>
       <c r="N92" s="71"/>
       <c r="O92" s="71"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="70"/>
       <c r="N93" s="71"/>
       <c r="O93" s="71"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="70"/>
       <c r="F94" s="128"/>
       <c r="N94" s="71"/>
       <c r="O94" s="71"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="70"/>
       <c r="N95" s="71"/>
       <c r="O95" s="71"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="70"/>
       <c r="N96" s="71"/>
       <c r="O96" s="71"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="70"/>
       <c r="N97" s="71"/>
       <c r="O97" s="71"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="70"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="70"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="70"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="70"/>
       <c r="C101" s="71"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="70"/>
       <c r="C102" s="71"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="70"/>
       <c r="C103" s="71"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="70"/>
       <c r="C104" s="71"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="70"/>
       <c r="C105" s="71"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="70"/>
       <c r="C106" s="71"/>
       <c r="E106" s="129"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="70"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="70"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="70"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="70"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="70"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="70"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="70"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="70"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="70"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B145" s="70"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B146" s="70"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B147" s="70"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B148" s="70"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B149" s="70"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B150" s="70"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B151" s="70"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B152" s="70"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B153" s="70"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B154" s="70"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B155" s="70"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B156" s="70"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B157" s="70"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B158" s="70"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="150"/>
       <c r="B159" s="152"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="150"/>
       <c r="B160" s="152"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="150"/>
       <c r="B161" s="152"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="150"/>
       <c r="B162" s="152"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="150"/>
       <c r="B163" s="152"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="150"/>
       <c r="B164" s="152"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="150"/>
       <c r="B165" s="152"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="150"/>
       <c r="B166" s="152"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="150"/>
       <c r="B167" s="152"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="150"/>
       <c r="B168" s="152"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="150"/>
       <c r="B169" s="152"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="150"/>
       <c r="B170" s="152"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="150"/>
       <c r="B171" s="152"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="150"/>
       <c r="B172" s="152"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="150"/>
       <c r="B173" s="152"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="150"/>
       <c r="B174" s="152"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="150"/>
       <c r="B175" s="152"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="150"/>
       <c r="B176" s="152"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="150"/>
       <c r="B177" s="152"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="150"/>
       <c r="B178" s="152"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="150"/>
       <c r="B179" s="152"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="150"/>
       <c r="B180" s="152"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="150"/>
       <c r="B181" s="152"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="150"/>
       <c r="B182" s="152"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="150"/>
       <c r="B183" s="152"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="150"/>
       <c r="B184" s="152"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="150"/>
       <c r="B185" s="152"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="150"/>
       <c r="B186" s="152"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="150"/>
       <c r="B187" s="152"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="150"/>
       <c r="B188" s="152"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="150"/>
       <c r="B189" s="152"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="150"/>
       <c r="B190" s="152"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="150"/>
       <c r="B191" s="152"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="150"/>
       <c r="B192" s="152"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="150"/>
       <c r="B193" s="152"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="150"/>
       <c r="B194" s="152"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="150"/>
       <c r="B195" s="152"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="150"/>
       <c r="B196" s="152"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="150"/>
       <c r="B197" s="152"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="150"/>
       <c r="B198" s="152"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="150"/>
       <c r="B199" s="152"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="150"/>
       <c r="B200" s="152"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="150"/>
       <c r="B201" s="152"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="150"/>
       <c r="B202" s="152"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="150"/>
       <c r="B203" s="152"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="150"/>
       <c r="B204" s="152"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="150"/>
       <c r="B205" s="152"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="150"/>
       <c r="B206" s="152"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="150"/>
       <c r="B207" s="152"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="150"/>
       <c r="B208" s="152"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="150"/>
       <c r="B209" s="152"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="150"/>
       <c r="B210" s="152"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="150"/>
       <c r="B211" s="152"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="150"/>
       <c r="B212" s="152"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="150"/>
       <c r="B213" s="152"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="150"/>
       <c r="B214" s="152"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="150"/>
       <c r="B215" s="152"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="150"/>
       <c r="B216" s="152"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="150"/>
       <c r="B217" s="152"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="150"/>
       <c r="B218" s="152"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="150"/>
       <c r="B219" s="152"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="150"/>
       <c r="B220" s="152"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="150"/>
       <c r="B221" s="152"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="150"/>
       <c r="B222" s="152"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="150"/>
       <c r="B223" s="152"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="150"/>
       <c r="B224" s="152"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="150"/>
       <c r="B225" s="152"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="150"/>
       <c r="B226" s="152"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="150"/>
       <c r="B227" s="152"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="150"/>
       <c r="B228" s="152"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="150"/>
       <c r="B229" s="152"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="150"/>
       <c r="B230" s="152"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="150"/>
       <c r="B231" s="152"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="150"/>
       <c r="B232" s="152"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="150"/>
       <c r="B233" s="152"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="150"/>
       <c r="B234" s="152"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="150"/>
       <c r="B235" s="152"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="150"/>
       <c r="B236" s="152"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="150"/>
       <c r="B237" s="152"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="150"/>
       <c r="B238" s="152"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="150"/>
       <c r="B239" s="152"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="150"/>
       <c r="B240" s="152"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="150"/>
       <c r="B241" s="152"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="150"/>
       <c r="B242" s="152"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="150"/>
       <c r="B243" s="152"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="150"/>
       <c r="B244" s="152"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="150"/>
       <c r="B245" s="152"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="150"/>
       <c r="B246" s="152"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="150"/>
       <c r="B247" s="152"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="150"/>
       <c r="B248" s="152"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="150"/>
       <c r="B249" s="152"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="150"/>
       <c r="B250" s="152"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="150"/>
       <c r="B251" s="152"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="150"/>
       <c r="B252" s="152"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="150"/>
       <c r="B253" s="152"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="150"/>
       <c r="B254" s="152"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="150"/>
       <c r="B255" s="152"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="150"/>
       <c r="B256" s="152"/>
     </row>
@@ -6742,10 +6626,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
-    <sheet name="Notes" sheetId="20" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId5"/>
+    <sheet name="Notes" sheetId="20" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="134">
   <si>
     <t>Source</t>
   </si>
@@ -470,9 +471,6 @@
     </r>
   </si>
   <si>
-    <t>Heat output capacity</t>
-  </si>
-  <si>
     <t>hydrogen_output_capacity</t>
   </si>
   <si>
@@ -492,28 +490,6 @@
   </si>
   <si>
     <t>https://www.industry.siemens.com/topics/global/en/pem-electrolyzer/silyzer/Documents/silyzer-200-en_v1.3_InternetVersion.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hydrogen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_output_capacity</t>
-    </r>
   </si>
   <si>
     <t>industry_flexibility_p2g_electricity.converter</t>
@@ -1628,7 +1604,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1857,11 +1833,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3046,10 +3020,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3049,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3221,61 +3195,60 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="171" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="176"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3348,133 +3321,124 @@
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="C12" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="E12" s="41">
-        <f>'Research data'!H7</f>
-        <v>1.25</v>
+        <f>'Research data'!H8</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="160" t="s">
-        <v>108</v>
+      <c r="G12" s="102" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="169" t="s">
-        <v>113</v>
+      <c r="I12" s="167" t="s">
+        <v>112</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>2</v>
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="41">
-        <f>'Research data'!H8</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="169" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="26"/>
+        <f>'Research data'!H9</f>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="108"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105"/>
       <c r="B14" s="106"/>
-      <c r="C14" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="41">
-        <f>'Research data'!H9</f>
-        <v>1.8518518518518516</v>
+        <f>'Research data'!H11</f>
+        <v>7533.6</v>
       </c>
       <c r="F14" s="102"/>
-      <c r="G14" s="153" t="s">
-        <v>99</v>
-      </c>
+      <c r="G14" s="102"/>
       <c r="H14" s="102"/>
-      <c r="I14" s="169" t="s">
-        <v>113</v>
+      <c r="I14" s="167" t="s">
+        <v>122</v>
       </c>
       <c r="J14" s="108"/>
       <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
       <c r="B15" s="106"/>
-      <c r="C15" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="23"/>
+      <c r="C15" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="E15" s="41">
-        <f>'Research data'!H11</f>
-        <v>7533.6</v>
+        <f>'Research data'!H10</f>
+        <v>0.99</v>
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
-      <c r="I15" s="169" t="s">
-        <v>124</v>
+      <c r="I15" s="167" t="s">
+        <v>130</v>
       </c>
       <c r="J15" s="108"/>
-      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="41">
-        <f>'Research data'!H10</f>
-        <v>0.99</v>
+      <c r="E16" s="109">
+        <v>0</v>
       </c>
       <c r="F16" s="102"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
-      <c r="I16" s="169" t="s">
-        <v>132</v>
-      </c>
+      <c r="I16" s="104"/>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="106"/>
-      <c r="C17" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="109">
-        <v>0</v>
-      </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="108"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="91"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -3485,96 +3449,103 @@
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
-      <c r="C19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="C19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="41">
+        <f>'Research data'!H18</f>
+        <v>1500000</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="160" t="s">
+        <v>129</v>
+      </c>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E20" s="41">
-        <f>'Research data'!H18</f>
-        <v>1500000</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="41">
         <f>'Research data'!H20</f>
         <v>80000</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="140" t="s">
+      <c r="F20" s="39"/>
+      <c r="G20" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="91"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="91"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="132"/>
+      <c r="C21" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="41">
+        <f>'Research data'!H22</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="135"/>
+      <c r="G21" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="135"/>
+      <c r="I21" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="136"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
       <c r="C22" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>81</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D22" s="134"/>
       <c r="E22" s="41">
-        <f>'Research data'!H22</f>
+        <f>'Research data'!H23</f>
         <v>0</v>
       </c>
       <c r="F22" s="135"/>
-      <c r="G22" s="133" t="s">
-        <v>82</v>
+      <c r="G22" s="139" t="s">
+        <v>89</v>
       </c>
       <c r="H22" s="135"/>
-      <c r="I22" s="161" t="s">
-        <v>131</v>
+      <c r="I22" s="148" t="s">
+        <v>96</v>
       </c>
       <c r="J22" s="136"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="132"/>
       <c r="C23" s="139" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="41">
-        <f>'Research data'!H23</f>
+        <f>'Research data'!H24</f>
         <v>0</v>
       </c>
       <c r="F23" s="135"/>
       <c r="G23" s="139" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" s="135"/>
       <c r="I23" s="148" t="s">
@@ -3584,225 +3555,217 @@
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="132"/>
-      <c r="C24" s="139" t="s">
-        <v>86</v>
+      <c r="C24" s="149" t="s">
+        <v>97</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="41">
-        <f>'Research data'!H24</f>
+        <f>'Research data'!H25</f>
         <v>0</v>
       </c>
       <c r="F24" s="135"/>
       <c r="G24" s="139" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="135"/>
-      <c r="I24" s="148" t="s">
-        <v>96</v>
-      </c>
+      <c r="I24" s="161"/>
       <c r="J24" s="136"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
-      <c r="C25" s="149" t="s">
-        <v>97</v>
+      <c r="C25" s="139" t="s">
+        <v>88</v>
       </c>
       <c r="D25" s="134"/>
       <c r="E25" s="41">
-        <f>'Research data'!H25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="135"/>
-      <c r="G25" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="135"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="136"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="132"/>
-      <c r="C26" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="41">
         <f>'Research data'!H26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="135"/>
-      <c r="G26" s="140" t="s">
+      <c r="F25" s="135"/>
+      <c r="G25" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="148" t="s">
+      <c r="H25" s="135"/>
+      <c r="I25" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="136"/>
+      <c r="J25" s="136"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="102"/>
+      <c r="I26" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105"/>
       <c r="B27" s="106"/>
       <c r="C27" s="102" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27" s="109">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="102"/>
-      <c r="G27" s="102" t="s">
-        <v>63</v>
-      </c>
+      <c r="G27" s="102"/>
       <c r="H27" s="102"/>
-      <c r="I27" s="169" t="s">
-        <v>132</v>
-      </c>
+      <c r="I27" s="104"/>
       <c r="J27" s="108"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="105"/>
       <c r="B28" s="106"/>
-      <c r="C28" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="109">
-        <v>0</v>
-      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="112"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
-      <c r="I28" s="104"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="108"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105"/>
       <c r="B29" s="106"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="92"/>
       <c r="E29" s="112"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
+      <c r="F29" s="110"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="110"/>
       <c r="J29" s="108"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105"/>
       <c r="B30" s="106"/>
-      <c r="C30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
+      <c r="C30" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="109">
+        <f>'Research data'!H30</f>
+        <v>10.619093129446744</v>
+      </c>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="102"/>
+      <c r="I30" s="160" t="s">
+        <v>112</v>
+      </c>
       <c r="J30" s="108"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="105"/>
       <c r="B31" s="106"/>
       <c r="C31" s="102" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="109">
-        <f>'Research data'!H30</f>
-        <v>10.619093129446744</v>
+        <f>'Research data'!H31</f>
+        <v>0</v>
       </c>
       <c r="F31" s="102"/>
       <c r="G31" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="102"/>
-      <c r="I31" s="161" t="s">
-        <v>113</v>
-      </c>
+      <c r="I31" s="104"/>
       <c r="J31" s="108"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="105"/>
       <c r="B32" s="106"/>
       <c r="C32" s="102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="109">
-        <f>'Research data'!H31</f>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="E32" s="127">
+        <f>'Research data'!H32</f>
+        <v>1.9530000000000001E-5</v>
       </c>
       <c r="F32" s="102"/>
       <c r="G32" s="102" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H32" s="102"/>
-      <c r="I32" s="104"/>
+      <c r="I32" s="167" t="s">
+        <v>112</v>
+      </c>
       <c r="J32" s="108"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="105"/>
       <c r="B33" s="106"/>
       <c r="C33" s="102" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="127">
-        <f>'Research data'!H32</f>
-        <v>1.9220000000000003E-3</v>
+        <v>2</v>
+      </c>
+      <c r="E33" s="109">
+        <v>0</v>
       </c>
       <c r="F33" s="102"/>
-      <c r="G33" s="102" t="s">
-        <v>76</v>
-      </c>
+      <c r="G33" s="102"/>
       <c r="H33" s="102"/>
-      <c r="I33" s="169" t="s">
-        <v>113</v>
+      <c r="I33" s="167" t="s">
+        <v>131</v>
       </c>
       <c r="J33" s="108"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="105"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="109">
-        <v>0</v>
-      </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="169" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="108"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="105"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="115"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="105"/>
@@ -3831,8 +3794,6 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="105"/>
       <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
       <c r="E38" s="105"/>
       <c r="F38" s="105"/>
       <c r="G38" s="105"/>
@@ -3843,6 +3804,8 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="105"/>
       <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="105"/>
       <c r="F39" s="105"/>
       <c r="G39" s="105"/>
@@ -3888,21 +3851,9 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="105"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3926,26 +3877,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="42" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="42" customWidth="1"/>
     <col min="17" max="17" width="11" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" style="42" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" style="42" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="42"/>
+    <col min="18" max="18" width="2.5" style="42" customWidth="1"/>
+    <col min="19" max="19" width="22.5" style="42" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3989,11 +3940,11 @@
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M4" s="88"/>
       <c r="N4" s="88" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O4" s="88"/>
       <c r="P4" s="88" t="s">
@@ -4156,7 +4107,7 @@
       <c r="J11" s="48"/>
       <c r="K11" s="105"/>
       <c r="M11" s="118"/>
-      <c r="N11" s="167">
+      <c r="N11" s="165">
         <f>Notes!E17</f>
         <v>7533.6</v>
       </c>
@@ -4426,8 +4377,8 @@
       </c>
       <c r="K24" s="145"/>
       <c r="O24" s="142"/>
-      <c r="P24" s="168" t="s">
-        <v>123</v>
+      <c r="P24" s="166" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4562,13 +4513,13 @@
       </c>
       <c r="H32" s="122">
         <f>L32</f>
-        <v>1.9220000000000003E-3</v>
+        <v>1.9530000000000001E-5</v>
       </c>
       <c r="I32" s="119"/>
       <c r="K32" s="119"/>
       <c r="L32" s="122">
         <f>Notes!E28</f>
-        <v>1.9220000000000003E-3</v>
+        <v>1.9530000000000001E-5</v>
       </c>
       <c r="M32" s="118"/>
       <c r="N32" s="118"/>
@@ -4639,13 +4590,13 @@
       <c r="P38" s="138"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C39" s="165"/>
+      <c r="C39" s="163"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C40" s="165"/>
+      <c r="C40" s="163"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="165"/>
+      <c r="C41" s="163"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4661,21 +4612,21 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="56" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="60" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="56"/>
+    <col min="1" max="1" width="3.5" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="60" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="60" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4754,67 +4705,67 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="168" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="168" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="168">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="168">
+        <v>2015</v>
+      </c>
+      <c r="H7" s="169">
+        <v>42360</v>
+      </c>
+      <c r="I7" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="J7" s="168" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="170">
-        <v>2015</v>
-      </c>
-      <c r="G7" s="170">
-        <v>2015</v>
-      </c>
-      <c r="H7" s="171">
-        <v>42360</v>
-      </c>
-      <c r="I7" s="172" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="170" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="170"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="59"/>
-      <c r="C9" s="170" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="170"/>
+      <c r="C9" s="168" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="170"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="59"/>
@@ -4853,10 +4804,10 @@
         <v>107</v>
       </c>
       <c r="D14" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="162" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="163" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="55">
         <v>2015</v>
@@ -4866,8 +4817,8 @@
       </c>
       <c r="H14" s="97"/>
       <c r="I14" s="110"/>
-      <c r="J14" s="163" t="s">
-        <v>115</v>
+      <c r="J14" s="162" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -4897,8 +4848,8 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
-      <c r="C17" s="170" t="s">
-        <v>110</v>
+      <c r="C17" s="168" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -4956,25 +4907,39 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="64" customWidth="1"/>
     <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="64"/>
-    <col min="14" max="14" width="15.7109375" style="64" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="64"/>
-    <col min="16" max="16" width="54.7109375" style="64" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="64"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="64" customWidth="1"/>
+    <col min="7" max="13" width="10.83203125" style="64"/>
+    <col min="14" max="14" width="15.6640625" style="64" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="64"/>
+    <col min="16" max="16" width="54.6640625" style="64" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5218,17 +5183,17 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
       <c r="C17" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="64">
         <v>7533.6</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
@@ -5243,7 +5208,7 @@
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
       <c r="G18" s="64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
@@ -5320,7 +5285,7 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="70"/>
       <c r="C23" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="71">
         <v>9</v>
@@ -5390,11 +5355,11 @@
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
       <c r="E27" s="71">
-        <f>6.2*3.1</f>
-        <v>19.220000000000002</v>
+        <f>6.3*3.1</f>
+        <v>19.53</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
@@ -5411,8 +5376,8 @@
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71">
-        <f>E27/10000</f>
-        <v>1.9220000000000003E-3</v>
+        <f>E27/1000000</f>
+        <v>1.9530000000000001E-5</v>
       </c>
       <c r="F28" s="71" t="s">
         <v>67</v>
@@ -5456,7 +5421,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
@@ -5521,7 +5486,7 @@
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" s="150"/>
       <c r="I34" s="71"/>
@@ -5556,10 +5521,10 @@
         <v>80000</v>
       </c>
       <c r="F36" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="64" t="s">
         <v>111</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>112</v>
       </c>
       <c r="I36" s="71"/>
       <c r="J36" s="71"/>
@@ -5607,8 +5572,8 @@
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
       <c r="I39" s="150"/>
       <c r="J39" s="71"/>
       <c r="K39" s="71"/>
@@ -5656,7 +5621,7 @@
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="70"/>
       <c r="C43" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="71">
         <v>89</v>
@@ -5697,7 +5662,7 @@
         <v>103</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K46" s="71"/>
       <c r="L46" s="71"/>
@@ -5743,7 +5708,7 @@
         <v>62</v>
       </c>
       <c r="G49" s="64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K49" s="71"/>
       <c r="L49" s="71"/>

--- a/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_flexibility_p2g_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -747,6 +747,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,6 +755,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,6 +763,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,17 +771,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,12 +792,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -814,11 +822,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3015,7 +3025,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3197,8 +3207,8 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3478,8 +3488,8 @@
         <v>51</v>
       </c>
       <c r="E20" s="41">
-        <f>'Research data'!H20</f>
-        <v>80000</v>
+        <f>'Research data'!H19</f>
+        <v>30000</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="140" t="s">
@@ -3872,7 +3882,7 @@
   <dimension ref="A2:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3881,7 +3891,7 @@
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="42" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
@@ -4252,13 +4262,13 @@
       <c r="F19" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="122" t="e">
+      <c r="H19" s="122">
         <f>J19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="157" t="e">
-        <f>Notes!#REF!</f>
-        <v>#REF!</v>
+        <v>30000</v>
+      </c>
+      <c r="J19" s="157">
+        <f>Notes!E50</f>
+        <v>30000</v>
       </c>
       <c r="L19" s="118"/>
       <c r="M19" s="118"/>
@@ -4277,12 +4287,9 @@
       </c>
       <c r="H20" s="158">
         <f>J20</f>
-        <v>80000</v>
-      </c>
-      <c r="J20" s="157">
-        <f>Notes!E36</f>
-        <v>80000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" s="157"/>
       <c r="L20" s="118"/>
       <c r="M20" s="118"/>
       <c r="N20" s="118"/>
@@ -4612,7 +4619,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4924,8 +4931,8 @@
   </sheetPr>
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,9 +5754,8 @@
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="70"/>
       <c r="C52" s="71"/>
-      <c r="E52" s="64" t="e">
-        <f>E51*#REF!</f>
-        <v>#REF!</v>
+      <c r="E52" s="64">
+        <v>0</v>
       </c>
       <c r="F52" s="64" t="s">
         <v>20</v>
